--- a/비율계산.xlsx
+++ b/비율계산.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="132">
   <si>
     <t>높이비율</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,6 +527,17 @@
   <si>
     <t>갤러리 높이</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섹션9 포지션 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지박스의 너비와</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 높이의 비율계산</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2190,159 +2201,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2360,15 +2218,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2412,14 +2261,209 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="58" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="41" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="58" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2722,10 +2766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="K110" sqref="K110"/>
+    <sheetView tabSelected="1" topLeftCell="C121" workbookViewId="0">
+      <selection activeCell="J128" sqref="J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2855,15 +2899,15 @@
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1"/>
     <row r="8" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A8" s="234" t="s">
+      <c r="A8" s="243" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="235"/>
-      <c r="C8" s="235"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235"/>
-      <c r="G8" s="236"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="245"/>
       <c r="H8" s="114"/>
     </row>
     <row r="9" spans="1:8">
@@ -2999,16 +3043,16 @@
     <row r="18" spans="1:12" ht="17.25" thickBot="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="247" t="s">
+      <c r="C18" s="256" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="248"/>
-      <c r="E18" s="248"/>
-      <c r="F18" s="248"/>
-      <c r="G18" s="248"/>
-      <c r="H18" s="248"/>
-      <c r="I18" s="248"/>
-      <c r="J18" s="249"/>
+      <c r="D18" s="257"/>
+      <c r="E18" s="257"/>
+      <c r="F18" s="257"/>
+      <c r="G18" s="257"/>
+      <c r="H18" s="257"/>
+      <c r="I18" s="257"/>
+      <c r="J18" s="258"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
@@ -3061,10 +3105,10 @@
     <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="250" t="s">
+      <c r="C22" s="259" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="241" t="s">
+      <c r="D22" s="250" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="59" t="s">
@@ -3081,8 +3125,8 @@
     <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="251"/>
-      <c r="D23" s="242"/>
+      <c r="C23" s="260"/>
+      <c r="D23" s="251"/>
       <c r="E23" s="16" t="s">
         <v>17</v>
       </c>
@@ -3102,8 +3146,8 @@
     <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="251"/>
-      <c r="D24" s="242"/>
+      <c r="C24" s="260"/>
+      <c r="D24" s="251"/>
       <c r="E24" s="16" t="s">
         <v>17</v>
       </c>
@@ -3125,8 +3169,8 @@
     <row r="25" spans="1:12" ht="17.25" thickBot="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="252"/>
-      <c r="D25" s="243"/>
+      <c r="C25" s="261"/>
+      <c r="D25" s="252"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="13"/>
@@ -3164,13 +3208,13 @@
       <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:12" ht="17.25" thickBot="1">
-      <c r="B27" s="259" t="s">
+      <c r="B27" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="250" t="s">
+      <c r="C27" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="256" t="s">
+      <c r="D27" s="265" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="53" t="s">
@@ -3188,9 +3232,9 @@
       <c r="L27" s="22"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="B28" s="259"/>
-      <c r="C28" s="251"/>
-      <c r="D28" s="257"/>
+      <c r="B28" s="268"/>
+      <c r="C28" s="260"/>
+      <c r="D28" s="266"/>
       <c r="E28" s="54" t="s">
         <v>41</v>
       </c>
@@ -3203,9 +3247,9 @@
       <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:12" ht="17.25" thickBot="1">
-      <c r="B29" s="259"/>
-      <c r="C29" s="252"/>
-      <c r="D29" s="258"/>
+      <c r="B29" s="268"/>
+      <c r="C29" s="261"/>
+      <c r="D29" s="267"/>
       <c r="E29" s="55">
         <v>1903</v>
       </c>
@@ -3249,12 +3293,12 @@
     </row>
     <row r="32" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="33" spans="3:13" ht="17.25" thickBot="1">
-      <c r="D33" s="253" t="s">
+      <c r="D33" s="262" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="254"/>
-      <c r="F33" s="254"/>
-      <c r="G33" s="255"/>
+      <c r="E33" s="263"/>
+      <c r="F33" s="263"/>
+      <c r="G33" s="264"/>
     </row>
     <row r="34" spans="3:13">
       <c r="D34" s="41">
@@ -3324,20 +3368,20 @@
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="3:13" ht="17.25" thickBot="1">
-      <c r="C41" s="247" t="s">
+      <c r="C41" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="248"/>
-      <c r="E41" s="248"/>
-      <c r="F41" s="249"/>
+      <c r="D41" s="257"/>
+      <c r="E41" s="257"/>
+      <c r="F41" s="258"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="237" t="s">
+      <c r="I41" s="246" t="s">
         <v>48</v>
       </c>
-      <c r="J41" s="238"/>
-      <c r="K41" s="238"/>
-      <c r="L41" s="239"/>
-      <c r="M41" s="240"/>
+      <c r="J41" s="247"/>
+      <c r="K41" s="247"/>
+      <c r="L41" s="248"/>
+      <c r="M41" s="249"/>
     </row>
     <row r="42" spans="3:13">
       <c r="C42" s="111" t="s">
@@ -3490,11 +3534,11 @@
     </row>
     <row r="48" spans="3:13" ht="17.25" thickBot="1"/>
     <row r="49" spans="4:12" ht="17.25" thickBot="1">
-      <c r="D49" s="247" t="s">
+      <c r="D49" s="256" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="248"/>
-      <c r="F49" s="249"/>
+      <c r="E49" s="257"/>
+      <c r="F49" s="258"/>
       <c r="K49">
         <v>28</v>
       </c>
@@ -3527,12 +3571,12 @@
     </row>
     <row r="52" spans="4:12" ht="17.25" thickBot="1"/>
     <row r="53" spans="4:12" ht="17.25" thickBot="1">
-      <c r="D53" s="244" t="s">
+      <c r="D53" s="253" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="245"/>
-      <c r="F53" s="245"/>
-      <c r="G53" s="246"/>
+      <c r="E53" s="254"/>
+      <c r="F53" s="254"/>
+      <c r="G53" s="255"/>
     </row>
     <row r="54" spans="4:12" ht="17.25" thickBot="1">
       <c r="D54" s="106" t="s">
@@ -3571,12 +3615,12 @@
       <c r="G56" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="227" t="s">
+      <c r="I56" s="277" t="s">
         <v>61</v>
       </c>
-      <c r="J56" s="228"/>
-      <c r="K56" s="228"/>
-      <c r="L56" s="229"/>
+      <c r="J56" s="278"/>
+      <c r="K56" s="278"/>
+      <c r="L56" s="279"/>
     </row>
     <row r="57" spans="4:12" ht="17.25" thickBot="1">
       <c r="D57" s="103">
@@ -3596,10 +3640,10 @@
       <c r="J57" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="K57" s="230" t="s">
+      <c r="K57" s="280" t="s">
         <v>65</v>
       </c>
-      <c r="L57" s="231"/>
+      <c r="L57" s="281"/>
     </row>
     <row r="58" spans="4:12">
       <c r="I58" s="129">
@@ -3677,13 +3721,13 @@
       </c>
     </row>
     <row r="63" spans="4:12">
-      <c r="D63" s="232" t="s">
+      <c r="D63" s="282" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="225"/>
-      <c r="F63" s="225"/>
-      <c r="G63" s="225"/>
-      <c r="H63" s="233"/>
+      <c r="E63" s="275"/>
+      <c r="F63" s="275"/>
+      <c r="G63" s="275"/>
+      <c r="H63" s="283"/>
       <c r="I63" s="129">
         <v>12</v>
       </c>
@@ -3792,12 +3836,12 @@
     </row>
     <row r="71" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="72" spans="2:12" ht="17.25" thickBot="1">
-      <c r="C72" s="211" t="s">
+      <c r="C72" s="286" t="s">
         <v>77</v>
       </c>
-      <c r="D72" s="212"/>
-      <c r="E72" s="212"/>
-      <c r="F72" s="213"/>
+      <c r="D72" s="287"/>
+      <c r="E72" s="287"/>
+      <c r="F72" s="288"/>
       <c r="G72" s="151"/>
     </row>
     <row r="73" spans="2:12">
@@ -3813,10 +3857,10 @@
       <c r="F73" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="I73" s="222" t="s">
+      <c r="I73" s="295" t="s">
         <v>103</v>
       </c>
-      <c r="J73" s="223"/>
+      <c r="J73" s="296"/>
       <c r="K73" s="176" t="s">
         <v>92</v>
       </c>
@@ -3928,18 +3972,18 @@
     </row>
     <row r="80" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="81" spans="3:10" ht="17.25" thickBot="1">
-      <c r="I81" s="209" t="s">
+      <c r="I81" s="284" t="s">
         <v>87</v>
       </c>
-      <c r="J81" s="210"/>
+      <c r="J81" s="285"/>
     </row>
     <row r="82" spans="3:10">
-      <c r="C82" s="216" t="s">
+      <c r="C82" s="289" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="217"/>
-      <c r="E82" s="217"/>
-      <c r="F82" s="218"/>
+      <c r="D82" s="290"/>
+      <c r="E82" s="290"/>
+      <c r="F82" s="291"/>
       <c r="I82" s="161" t="s">
         <v>85</v>
       </c>
@@ -4010,12 +4054,12 @@
     </row>
     <row r="87" spans="3:10" ht="17.25" thickBot="1"/>
     <row r="88" spans="3:10">
-      <c r="C88" s="219" t="s">
+      <c r="C88" s="292" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="220"/>
-      <c r="E88" s="220"/>
-      <c r="F88" s="221"/>
+      <c r="D88" s="293"/>
+      <c r="E88" s="293"/>
+      <c r="F88" s="294"/>
     </row>
     <row r="89" spans="3:10">
       <c r="C89" s="165">
@@ -4049,11 +4093,11 @@
     </row>
     <row r="93" spans="3:10" ht="17.25" thickBot="1"/>
     <row r="94" spans="3:10">
-      <c r="C94" s="214" t="s">
+      <c r="C94" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="D94" s="215"/>
-      <c r="E94" s="215"/>
+      <c r="D94" s="240"/>
+      <c r="E94" s="240"/>
       <c r="F94" s="143" t="s">
         <v>92</v>
       </c>
@@ -4254,18 +4298,18 @@
     </row>
     <row r="107" spans="2:10" ht="17.25" thickBot="1"/>
     <row r="108" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B108" s="224" t="s">
+      <c r="B108" s="274" t="s">
         <v>104</v>
       </c>
-      <c r="C108" s="225"/>
-      <c r="D108" s="226"/>
+      <c r="C108" s="275"/>
+      <c r="D108" s="276"/>
       <c r="E108" s="193"/>
-      <c r="F108" s="266" t="s">
+      <c r="F108" s="269" t="s">
         <v>118</v>
       </c>
-      <c r="G108" s="267"/>
-      <c r="H108" s="267"/>
-      <c r="I108" s="268"/>
+      <c r="G108" s="270"/>
+      <c r="H108" s="270"/>
+      <c r="I108" s="271"/>
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="197" t="s">
@@ -4278,16 +4322,16 @@
         <v>107</v>
       </c>
       <c r="E109" s="192"/>
-      <c r="F109" s="274" t="s">
+      <c r="F109" s="220" t="s">
         <v>115</v>
       </c>
-      <c r="G109" s="269">
+      <c r="G109" s="215">
         <v>1903</v>
       </c>
-      <c r="H109" s="264">
+      <c r="H109" s="213">
         <v>60</v>
       </c>
-      <c r="I109" s="265">
+      <c r="I109" s="214">
         <f>H109/G109</f>
         <v>3.1529164477141353E-2</v>
       </c>
@@ -4304,10 +4348,10 @@
         <v>0.72237801458216488</v>
       </c>
       <c r="E110" s="192"/>
-      <c r="F110" s="275" t="s">
+      <c r="F110" s="221" t="s">
         <v>121</v>
       </c>
-      <c r="G110" s="270">
+      <c r="G110" s="216">
         <v>0.04</v>
       </c>
       <c r="H110" s="186">
@@ -4328,16 +4372,16 @@
         <v>0.36118900729108244</v>
       </c>
       <c r="E111" s="1"/>
-      <c r="F111" s="275" t="s">
+      <c r="F111" s="221" t="s">
         <v>113</v>
       </c>
-      <c r="G111" s="271">
+      <c r="G111" s="217">
         <v>800</v>
       </c>
-      <c r="H111" s="273" t="s">
+      <c r="H111" s="219" t="s">
         <v>120</v>
       </c>
-      <c r="I111" s="272">
+      <c r="I111" s="218">
         <v>4</v>
       </c>
     </row>
@@ -4350,13 +4394,13 @@
       </c>
       <c r="D112" s="201"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="278" t="s">
+      <c r="F112" s="224" t="s">
         <v>114</v>
       </c>
-      <c r="G112" s="279">
+      <c r="G112" s="225">
         <v>600</v>
       </c>
-      <c r="H112" s="280">
+      <c r="H112" s="226">
         <f>G112/G111</f>
         <v>0.75</v>
       </c>
@@ -4374,11 +4418,11 @@
         <v>8.7245722342233559E-2</v>
       </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="283" t="s">
+      <c r="F113" s="272" t="s">
         <v>119</v>
       </c>
-      <c r="G113" s="284"/>
-      <c r="H113" s="285">
+      <c r="G113" s="273"/>
+      <c r="H113" s="229">
         <f>G109/I111</f>
         <v>475.75</v>
       </c>
@@ -4395,10 +4439,10 @@
       </c>
       <c r="D114" s="207"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="281" t="s">
+      <c r="F114" s="227" t="s">
         <v>123</v>
       </c>
-      <c r="G114" s="282" t="s">
+      <c r="G114" s="228" t="s">
         <v>116</v>
       </c>
       <c r="H114" s="29">
@@ -4421,24 +4465,24 @@
         <v>0.12422360248447205</v>
       </c>
       <c r="E115" s="1"/>
-      <c r="F115" s="277" t="s">
+      <c r="F115" s="223" t="s">
         <v>122</v>
       </c>
-      <c r="G115" s="276" t="s">
+      <c r="G115" s="222" t="s">
         <v>117</v>
       </c>
       <c r="H115" s="43"/>
       <c r="I115" s="127"/>
     </row>
     <row r="116" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B116" s="261">
+      <c r="B116" s="210">
         <f>B115-80</f>
         <v>242</v>
       </c>
-      <c r="C116" s="262">
+      <c r="C116" s="211">
         <v>10</v>
       </c>
-      <c r="D116" s="263">
+      <c r="D116" s="212">
         <f>C116/B116</f>
         <v>4.1322314049586778E-2</v>
       </c>
@@ -4457,8 +4501,8 @@
     </row>
     <row r="117" spans="2:9">
       <c r="B117" s="7"/>
-      <c r="C117" s="260"/>
-      <c r="D117" s="260"/>
+      <c r="C117" s="209"/>
+      <c r="D117" s="209"/>
       <c r="E117" s="1"/>
       <c r="F117" s="9"/>
       <c r="G117" s="7" t="s">
@@ -4493,14 +4537,119 @@
       <c r="H119" s="11"/>
       <c r="I119" s="12"/>
     </row>
+    <row r="121" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="122" spans="2:9">
+      <c r="F122" s="236" t="s">
+        <v>129</v>
+      </c>
+      <c r="G122" s="237"/>
+      <c r="H122" s="237"/>
+      <c r="I122" s="238"/>
+    </row>
+    <row r="123" spans="2:9">
+      <c r="F123" s="232">
+        <v>1903</v>
+      </c>
+      <c r="G123" s="22">
+        <v>4</v>
+      </c>
+      <c r="H123" s="22">
+        <f>F123/G123</f>
+        <v>475.75</v>
+      </c>
+      <c r="I123" s="48">
+        <f>H123*I132</f>
+        <v>356.8125</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9">
+      <c r="F124" s="232">
+        <v>1903</v>
+      </c>
+      <c r="G124" s="22">
+        <v>3</v>
+      </c>
+      <c r="H124" s="22">
+        <f>F124/G124</f>
+        <v>634.33333333333337</v>
+      </c>
+      <c r="I124" s="48">
+        <f>H124*I132</f>
+        <v>475.75</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9">
+      <c r="F125" s="232">
+        <v>1903</v>
+      </c>
+      <c r="G125" s="22">
+        <v>2</v>
+      </c>
+      <c r="H125" s="22">
+        <f t="shared" ref="H125:H126" si="1">F125/G125</f>
+        <v>951.5</v>
+      </c>
+      <c r="I125" s="48">
+        <f>H125*I132</f>
+        <v>713.625</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" ht="17.25" thickBot="1">
+      <c r="F126" s="233">
+        <v>1903</v>
+      </c>
+      <c r="G126" s="43">
+        <v>1</v>
+      </c>
+      <c r="H126" s="43">
+        <f t="shared" si="1"/>
+        <v>1903</v>
+      </c>
+      <c r="I126" s="127">
+        <f>H126*I132</f>
+        <v>1427.25</v>
+      </c>
+    </row>
+    <row r="130" spans="6:9" ht="17.25" thickBot="1"/>
+    <row r="131" spans="6:9">
+      <c r="F131" s="239" t="s">
+        <v>130</v>
+      </c>
+      <c r="G131" s="240"/>
+      <c r="H131" s="234">
+        <v>800</v>
+      </c>
+      <c r="I131" s="230"/>
+    </row>
+    <row r="132" spans="6:9" ht="17.25" thickBot="1">
+      <c r="F132" s="241" t="s">
+        <v>131</v>
+      </c>
+      <c r="G132" s="242"/>
+      <c r="H132" s="235">
+        <v>600</v>
+      </c>
+      <c r="I132" s="231">
+        <f>H132/H131</f>
+        <v>0.75</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="F108:I108"/>
+  <mergeCells count="27">
     <mergeCell ref="F113:G113"/>
     <mergeCell ref="B108:D108"/>
     <mergeCell ref="I56:L56"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="D63:H63"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="F132:G132"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="I41:M41"/>
     <mergeCell ref="D22:D25"/>
@@ -4513,12 +4662,7 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="D49:F49"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="F108:I108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/비율계산.xlsx
+++ b/비율계산.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="139">
   <si>
     <t>높이비율</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,6 +538,34 @@
   </si>
   <si>
     <t xml:space="preserve"> 높이의 비율계산</t>
+  </si>
+  <si>
+    <t>섹션10 넓이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;-1vw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반응형의 시작점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섹션11 글씨 반응형 1170px일때 줄어드는거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섹션12 검은 버튼 패딩 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1573,7 +1601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2282,6 +2310,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="41" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2463,6 +2494,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2766,10 +2818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C121" workbookViewId="0">
-      <selection activeCell="J128" sqref="J128"/>
+    <sheetView tabSelected="1" topLeftCell="C136" workbookViewId="0">
+      <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2899,15 +2951,15 @@
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1"/>
     <row r="8" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A8" s="243" t="s">
+      <c r="A8" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="244"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
-      <c r="G8" s="245"/>
+      <c r="B8" s="245"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="245"/>
+      <c r="E8" s="245"/>
+      <c r="F8" s="245"/>
+      <c r="G8" s="246"/>
       <c r="H8" s="114"/>
     </row>
     <row r="9" spans="1:8">
@@ -3043,16 +3095,16 @@
     <row r="18" spans="1:12" ht="17.25" thickBot="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="256" t="s">
+      <c r="C18" s="257" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="257"/>
-      <c r="E18" s="257"/>
-      <c r="F18" s="257"/>
-      <c r="G18" s="257"/>
-      <c r="H18" s="257"/>
-      <c r="I18" s="257"/>
-      <c r="J18" s="258"/>
+      <c r="D18" s="258"/>
+      <c r="E18" s="258"/>
+      <c r="F18" s="258"/>
+      <c r="G18" s="258"/>
+      <c r="H18" s="258"/>
+      <c r="I18" s="258"/>
+      <c r="J18" s="259"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
@@ -3105,10 +3157,10 @@
     <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="259" t="s">
+      <c r="C22" s="260" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="250" t="s">
+      <c r="D22" s="251" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="59" t="s">
@@ -3125,8 +3177,8 @@
     <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="260"/>
-      <c r="D23" s="251"/>
+      <c r="C23" s="261"/>
+      <c r="D23" s="252"/>
       <c r="E23" s="16" t="s">
         <v>17</v>
       </c>
@@ -3146,8 +3198,8 @@
     <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="260"/>
-      <c r="D24" s="251"/>
+      <c r="C24" s="261"/>
+      <c r="D24" s="252"/>
       <c r="E24" s="16" t="s">
         <v>17</v>
       </c>
@@ -3169,8 +3221,8 @@
     <row r="25" spans="1:12" ht="17.25" thickBot="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="261"/>
-      <c r="D25" s="252"/>
+      <c r="C25" s="262"/>
+      <c r="D25" s="253"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="13"/>
@@ -3208,13 +3260,13 @@
       <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:12" ht="17.25" thickBot="1">
-      <c r="B27" s="268" t="s">
+      <c r="B27" s="269" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="259" t="s">
+      <c r="C27" s="260" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="265" t="s">
+      <c r="D27" s="266" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="53" t="s">
@@ -3232,9 +3284,9 @@
       <c r="L27" s="22"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="B28" s="268"/>
-      <c r="C28" s="260"/>
-      <c r="D28" s="266"/>
+      <c r="B28" s="269"/>
+      <c r="C28" s="261"/>
+      <c r="D28" s="267"/>
       <c r="E28" s="54" t="s">
         <v>41</v>
       </c>
@@ -3247,9 +3299,9 @@
       <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:12" ht="17.25" thickBot="1">
-      <c r="B29" s="268"/>
-      <c r="C29" s="261"/>
-      <c r="D29" s="267"/>
+      <c r="B29" s="269"/>
+      <c r="C29" s="262"/>
+      <c r="D29" s="268"/>
       <c r="E29" s="55">
         <v>1903</v>
       </c>
@@ -3293,12 +3345,12 @@
     </row>
     <row r="32" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="33" spans="3:13" ht="17.25" thickBot="1">
-      <c r="D33" s="262" t="s">
+      <c r="D33" s="263" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="263"/>
-      <c r="F33" s="263"/>
-      <c r="G33" s="264"/>
+      <c r="E33" s="264"/>
+      <c r="F33" s="264"/>
+      <c r="G33" s="265"/>
     </row>
     <row r="34" spans="3:13">
       <c r="D34" s="41">
@@ -3368,20 +3420,20 @@
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="3:13" ht="17.25" thickBot="1">
-      <c r="C41" s="256" t="s">
+      <c r="C41" s="257" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="257"/>
-      <c r="E41" s="257"/>
-      <c r="F41" s="258"/>
+      <c r="D41" s="258"/>
+      <c r="E41" s="258"/>
+      <c r="F41" s="259"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="246" t="s">
+      <c r="I41" s="247" t="s">
         <v>48</v>
       </c>
-      <c r="J41" s="247"/>
-      <c r="K41" s="247"/>
-      <c r="L41" s="248"/>
-      <c r="M41" s="249"/>
+      <c r="J41" s="248"/>
+      <c r="K41" s="248"/>
+      <c r="L41" s="249"/>
+      <c r="M41" s="250"/>
     </row>
     <row r="42" spans="3:13">
       <c r="C42" s="111" t="s">
@@ -3534,11 +3586,11 @@
     </row>
     <row r="48" spans="3:13" ht="17.25" thickBot="1"/>
     <row r="49" spans="4:12" ht="17.25" thickBot="1">
-      <c r="D49" s="256" t="s">
+      <c r="D49" s="257" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="257"/>
-      <c r="F49" s="258"/>
+      <c r="E49" s="258"/>
+      <c r="F49" s="259"/>
       <c r="K49">
         <v>28</v>
       </c>
@@ -3571,12 +3623,12 @@
     </row>
     <row r="52" spans="4:12" ht="17.25" thickBot="1"/>
     <row r="53" spans="4:12" ht="17.25" thickBot="1">
-      <c r="D53" s="253" t="s">
+      <c r="D53" s="254" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="254"/>
-      <c r="F53" s="254"/>
-      <c r="G53" s="255"/>
+      <c r="E53" s="255"/>
+      <c r="F53" s="255"/>
+      <c r="G53" s="256"/>
     </row>
     <row r="54" spans="4:12" ht="17.25" thickBot="1">
       <c r="D54" s="106" t="s">
@@ -3615,12 +3667,12 @@
       <c r="G56" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="277" t="s">
+      <c r="I56" s="278" t="s">
         <v>61</v>
       </c>
-      <c r="J56" s="278"/>
-      <c r="K56" s="278"/>
-      <c r="L56" s="279"/>
+      <c r="J56" s="279"/>
+      <c r="K56" s="279"/>
+      <c r="L56" s="280"/>
     </row>
     <row r="57" spans="4:12" ht="17.25" thickBot="1">
       <c r="D57" s="103">
@@ -3640,10 +3692,10 @@
       <c r="J57" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="K57" s="280" t="s">
+      <c r="K57" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="L57" s="281"/>
+      <c r="L57" s="282"/>
     </row>
     <row r="58" spans="4:12">
       <c r="I58" s="129">
@@ -3721,13 +3773,13 @@
       </c>
     </row>
     <row r="63" spans="4:12">
-      <c r="D63" s="282" t="s">
+      <c r="D63" s="283" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="275"/>
-      <c r="F63" s="275"/>
-      <c r="G63" s="275"/>
-      <c r="H63" s="283"/>
+      <c r="E63" s="276"/>
+      <c r="F63" s="276"/>
+      <c r="G63" s="276"/>
+      <c r="H63" s="284"/>
       <c r="I63" s="129">
         <v>12</v>
       </c>
@@ -3836,12 +3888,12 @@
     </row>
     <row r="71" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="72" spans="2:12" ht="17.25" thickBot="1">
-      <c r="C72" s="286" t="s">
+      <c r="C72" s="287" t="s">
         <v>77</v>
       </c>
-      <c r="D72" s="287"/>
-      <c r="E72" s="287"/>
-      <c r="F72" s="288"/>
+      <c r="D72" s="288"/>
+      <c r="E72" s="288"/>
+      <c r="F72" s="289"/>
       <c r="G72" s="151"/>
     </row>
     <row r="73" spans="2:12">
@@ -3857,10 +3909,10 @@
       <c r="F73" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="I73" s="295" t="s">
+      <c r="I73" s="296" t="s">
         <v>103</v>
       </c>
-      <c r="J73" s="296"/>
+      <c r="J73" s="297"/>
       <c r="K73" s="176" t="s">
         <v>92</v>
       </c>
@@ -3972,18 +4024,18 @@
     </row>
     <row r="80" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="81" spans="3:10" ht="17.25" thickBot="1">
-      <c r="I81" s="284" t="s">
+      <c r="I81" s="285" t="s">
         <v>87</v>
       </c>
-      <c r="J81" s="285"/>
+      <c r="J81" s="286"/>
     </row>
     <row r="82" spans="3:10">
-      <c r="C82" s="289" t="s">
+      <c r="C82" s="290" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="290"/>
-      <c r="E82" s="290"/>
-      <c r="F82" s="291"/>
+      <c r="D82" s="291"/>
+      <c r="E82" s="291"/>
+      <c r="F82" s="292"/>
       <c r="I82" s="161" t="s">
         <v>85</v>
       </c>
@@ -4054,12 +4106,12 @@
     </row>
     <row r="87" spans="3:10" ht="17.25" thickBot="1"/>
     <row r="88" spans="3:10">
-      <c r="C88" s="292" t="s">
+      <c r="C88" s="293" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="293"/>
-      <c r="E88" s="293"/>
-      <c r="F88" s="294"/>
+      <c r="D88" s="294"/>
+      <c r="E88" s="294"/>
+      <c r="F88" s="295"/>
     </row>
     <row r="89" spans="3:10">
       <c r="C89" s="165">
@@ -4093,11 +4145,11 @@
     </row>
     <row r="93" spans="3:10" ht="17.25" thickBot="1"/>
     <row r="94" spans="3:10">
-      <c r="C94" s="239" t="s">
+      <c r="C94" s="240" t="s">
         <v>88</v>
       </c>
-      <c r="D94" s="240"/>
-      <c r="E94" s="240"/>
+      <c r="D94" s="241"/>
+      <c r="E94" s="241"/>
       <c r="F94" s="143" t="s">
         <v>92</v>
       </c>
@@ -4298,18 +4350,18 @@
     </row>
     <row r="107" spans="2:10" ht="17.25" thickBot="1"/>
     <row r="108" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B108" s="274" t="s">
+      <c r="B108" s="275" t="s">
         <v>104</v>
       </c>
-      <c r="C108" s="275"/>
-      <c r="D108" s="276"/>
+      <c r="C108" s="276"/>
+      <c r="D108" s="277"/>
       <c r="E108" s="193"/>
-      <c r="F108" s="269" t="s">
+      <c r="F108" s="270" t="s">
         <v>118</v>
       </c>
-      <c r="G108" s="270"/>
-      <c r="H108" s="270"/>
-      <c r="I108" s="271"/>
+      <c r="G108" s="271"/>
+      <c r="H108" s="271"/>
+      <c r="I108" s="272"/>
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="197" t="s">
@@ -4418,10 +4470,10 @@
         <v>8.7245722342233559E-2</v>
       </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="272" t="s">
+      <c r="F113" s="273" t="s">
         <v>119</v>
       </c>
-      <c r="G113" s="273"/>
+      <c r="G113" s="274"/>
       <c r="H113" s="229">
         <f>G109/I111</f>
         <v>475.75</v>
@@ -4539,12 +4591,12 @@
     </row>
     <row r="121" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="122" spans="2:9">
-      <c r="F122" s="236" t="s">
+      <c r="F122" s="237" t="s">
         <v>129</v>
       </c>
-      <c r="G122" s="237"/>
-      <c r="H122" s="237"/>
-      <c r="I122" s="238"/>
+      <c r="G122" s="238"/>
+      <c r="H122" s="238"/>
+      <c r="I122" s="239"/>
     </row>
     <row r="123" spans="2:9">
       <c r="F123" s="232">
@@ -4610,22 +4662,22 @@
         <v>1427.25</v>
       </c>
     </row>
-    <row r="130" spans="6:9" ht="17.25" thickBot="1"/>
-    <row r="131" spans="6:9">
-      <c r="F131" s="239" t="s">
+    <row r="130" spans="3:10" ht="17.25" thickBot="1"/>
+    <row r="131" spans="3:10">
+      <c r="F131" s="240" t="s">
         <v>130</v>
       </c>
-      <c r="G131" s="240"/>
+      <c r="G131" s="241"/>
       <c r="H131" s="234">
         <v>800</v>
       </c>
       <c r="I131" s="230"/>
     </row>
-    <row r="132" spans="6:9" ht="17.25" thickBot="1">
-      <c r="F132" s="241" t="s">
+    <row r="132" spans="3:10" ht="17.25" thickBot="1">
+      <c r="F132" s="242" t="s">
         <v>131</v>
       </c>
-      <c r="G132" s="242"/>
+      <c r="G132" s="243"/>
       <c r="H132" s="235">
         <v>600</v>
       </c>
@@ -4634,8 +4686,203 @@
         <v>0.75</v>
       </c>
     </row>
+    <row r="133" spans="3:10" ht="17.25" thickBot="1"/>
+    <row r="134" spans="3:10">
+      <c r="C134" s="299" t="s">
+        <v>132</v>
+      </c>
+      <c r="D134" s="300"/>
+      <c r="E134" s="301"/>
+    </row>
+    <row r="135" spans="3:10">
+      <c r="C135" s="125">
+        <v>1170</v>
+      </c>
+      <c r="D135" s="22">
+        <v>216</v>
+      </c>
+      <c r="E135" s="48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="3:10">
+      <c r="C136" s="125">
+        <v>975</v>
+      </c>
+      <c r="D136" s="22">
+        <v>8</v>
+      </c>
+      <c r="E136" s="48">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="137" spans="3:10">
+      <c r="C137" s="125">
+        <v>732.25</v>
+      </c>
+      <c r="D137" s="22"/>
+      <c r="E137" s="48"/>
+    </row>
+    <row r="138" spans="3:10">
+      <c r="C138" s="125"/>
+      <c r="D138" s="22"/>
+      <c r="E138" s="48"/>
+    </row>
+    <row r="139" spans="3:10" ht="17.25" thickBot="1">
+      <c r="C139" s="125"/>
+      <c r="D139" s="22">
+        <v>292.18799999999999</v>
+      </c>
+      <c r="E139" s="48"/>
+    </row>
+    <row r="140" spans="3:10" ht="17.25" thickBot="1">
+      <c r="C140" s="126"/>
+      <c r="D140" s="43">
+        <v>379.06200000000001</v>
+      </c>
+      <c r="E140" s="150"/>
+      <c r="F140" s="302" t="s">
+        <v>137</v>
+      </c>
+      <c r="G140" s="303"/>
+      <c r="H140" s="303"/>
+      <c r="I140" s="303"/>
+      <c r="J140" s="304"/>
+    </row>
+    <row r="141" spans="3:10">
+      <c r="F141" s="125">
+        <v>1903</v>
+      </c>
+      <c r="G141" s="22">
+        <v>100</v>
+      </c>
+      <c r="H141" s="298">
+        <v>0.945874934</v>
+      </c>
+      <c r="I141" s="22"/>
+      <c r="J141" s="48"/>
+    </row>
+    <row r="142" spans="3:10">
+      <c r="F142" s="125"/>
+      <c r="G142" s="22">
+        <f>F141/G141</f>
+        <v>19.03</v>
+      </c>
+      <c r="H142" s="22">
+        <f>H141*G142</f>
+        <v>17.999999994020001</v>
+      </c>
+      <c r="I142" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="J142" s="48"/>
+    </row>
+    <row r="143" spans="3:10">
+      <c r="F143" s="125">
+        <v>1170</v>
+      </c>
+      <c r="G143" s="22"/>
+      <c r="H143" s="22">
+        <f>F143/G141</f>
+        <v>11.7</v>
+      </c>
+      <c r="I143" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="J143" s="48"/>
+    </row>
+    <row r="144" spans="3:10">
+      <c r="F144" s="125" t="s">
+        <v>136</v>
+      </c>
+      <c r="G144" s="22"/>
+      <c r="H144" s="22">
+        <v>18</v>
+      </c>
+      <c r="I144" s="22">
+        <f>H144/H143</f>
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="J144" s="48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="145" spans="4:10" ht="17.25" thickBot="1">
+      <c r="F145" s="126">
+        <v>760</v>
+      </c>
+      <c r="G145" s="43">
+        <v>23</v>
+      </c>
+      <c r="H145" s="43">
+        <f>F145/G141</f>
+        <v>7.6</v>
+      </c>
+      <c r="I145" s="43">
+        <f>G145/H145</f>
+        <v>3.0263157894736845</v>
+      </c>
+      <c r="J145" s="127" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="147" spans="4:10">
+      <c r="D147" s="236" t="s">
+        <v>138</v>
+      </c>
+      <c r="E147" s="236"/>
+    </row>
+    <row r="148" spans="4:10">
+      <c r="D148">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="149" spans="4:10">
+      <c r="D149">
+        <v>15</v>
+      </c>
+      <c r="E149">
+        <f>D149/D148</f>
+        <v>1.3157894736842105E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="4:10">
+      <c r="D150">
+        <v>40</v>
+      </c>
+      <c r="E150">
+        <f>D150/D148</f>
+        <v>3.5087719298245612E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="4:10">
+      <c r="D151">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="152" spans="4:10">
+      <c r="D152">
+        <v>12</v>
+      </c>
+      <c r="E152">
+        <f>D152/D151</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="4:10">
+      <c r="D153">
+        <v>30</v>
+      </c>
+      <c r="E153">
+        <f>D153/D151</f>
+        <v>0.18518518518518517</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="30">
+    <mergeCell ref="F140:J140"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F108:I108"/>
     <mergeCell ref="F113:G113"/>
     <mergeCell ref="B108:D108"/>
     <mergeCell ref="I56:L56"/>
@@ -4647,6 +4894,7 @@
     <mergeCell ref="C82:F82"/>
     <mergeCell ref="C88:F88"/>
     <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C134:E134"/>
     <mergeCell ref="F122:I122"/>
     <mergeCell ref="F131:G131"/>
     <mergeCell ref="F132:G132"/>
@@ -4662,7 +4910,6 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="D49:F49"/>
-    <mergeCell ref="F108:I108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/비율계산.xlsx
+++ b/비율계산.xlsx
@@ -1601,7 +1601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2310,7 +2310,115 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="41" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2322,12 +2430,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2412,109 +2514,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2818,10 +2821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C136" workbookViewId="0">
-      <selection activeCell="D151" sqref="D151"/>
+      <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2951,15 +2954,15 @@
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1"/>
     <row r="8" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A8" s="244" t="s">
+      <c r="A8" s="278" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="245"/>
-      <c r="C8" s="245"/>
-      <c r="D8" s="245"/>
-      <c r="E8" s="245"/>
-      <c r="F8" s="245"/>
-      <c r="G8" s="246"/>
+      <c r="B8" s="279"/>
+      <c r="C8" s="279"/>
+      <c r="D8" s="279"/>
+      <c r="E8" s="279"/>
+      <c r="F8" s="279"/>
+      <c r="G8" s="280"/>
       <c r="H8" s="114"/>
     </row>
     <row r="9" spans="1:8">
@@ -3095,16 +3098,16 @@
     <row r="18" spans="1:12" ht="17.25" thickBot="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="257" t="s">
+      <c r="C18" s="291" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="258"/>
-      <c r="E18" s="258"/>
-      <c r="F18" s="258"/>
-      <c r="G18" s="258"/>
-      <c r="H18" s="258"/>
-      <c r="I18" s="258"/>
-      <c r="J18" s="259"/>
+      <c r="D18" s="292"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="292"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="292"/>
+      <c r="I18" s="292"/>
+      <c r="J18" s="293"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
@@ -3157,10 +3160,10 @@
     <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="260" t="s">
+      <c r="C22" s="294" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="251" t="s">
+      <c r="D22" s="285" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="59" t="s">
@@ -3177,8 +3180,8 @@
     <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="261"/>
-      <c r="D23" s="252"/>
+      <c r="C23" s="295"/>
+      <c r="D23" s="286"/>
       <c r="E23" s="16" t="s">
         <v>17</v>
       </c>
@@ -3198,8 +3201,8 @@
     <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="261"/>
-      <c r="D24" s="252"/>
+      <c r="C24" s="295"/>
+      <c r="D24" s="286"/>
       <c r="E24" s="16" t="s">
         <v>17</v>
       </c>
@@ -3221,8 +3224,8 @@
     <row r="25" spans="1:12" ht="17.25" thickBot="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="262"/>
-      <c r="D25" s="253"/>
+      <c r="C25" s="296"/>
+      <c r="D25" s="287"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="13"/>
@@ -3260,13 +3263,13 @@
       <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:12" ht="17.25" thickBot="1">
-      <c r="B27" s="269" t="s">
+      <c r="B27" s="303" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="260" t="s">
+      <c r="C27" s="294" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="266" t="s">
+      <c r="D27" s="300" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="53" t="s">
@@ -3284,9 +3287,9 @@
       <c r="L27" s="22"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="B28" s="269"/>
-      <c r="C28" s="261"/>
-      <c r="D28" s="267"/>
+      <c r="B28" s="303"/>
+      <c r="C28" s="295"/>
+      <c r="D28" s="301"/>
       <c r="E28" s="54" t="s">
         <v>41</v>
       </c>
@@ -3299,9 +3302,9 @@
       <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:12" ht="17.25" thickBot="1">
-      <c r="B29" s="269"/>
-      <c r="C29" s="262"/>
-      <c r="D29" s="268"/>
+      <c r="B29" s="303"/>
+      <c r="C29" s="296"/>
+      <c r="D29" s="302"/>
       <c r="E29" s="55">
         <v>1903</v>
       </c>
@@ -3345,12 +3348,12 @@
     </row>
     <row r="32" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="33" spans="3:13" ht="17.25" thickBot="1">
-      <c r="D33" s="263" t="s">
+      <c r="D33" s="297" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="264"/>
-      <c r="F33" s="264"/>
-      <c r="G33" s="265"/>
+      <c r="E33" s="298"/>
+      <c r="F33" s="298"/>
+      <c r="G33" s="299"/>
     </row>
     <row r="34" spans="3:13">
       <c r="D34" s="41">
@@ -3420,20 +3423,20 @@
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="3:13" ht="17.25" thickBot="1">
-      <c r="C41" s="257" t="s">
+      <c r="C41" s="291" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="258"/>
-      <c r="E41" s="258"/>
-      <c r="F41" s="259"/>
+      <c r="D41" s="292"/>
+      <c r="E41" s="292"/>
+      <c r="F41" s="293"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="247" t="s">
+      <c r="I41" s="281" t="s">
         <v>48</v>
       </c>
-      <c r="J41" s="248"/>
-      <c r="K41" s="248"/>
-      <c r="L41" s="249"/>
-      <c r="M41" s="250"/>
+      <c r="J41" s="282"/>
+      <c r="K41" s="282"/>
+      <c r="L41" s="283"/>
+      <c r="M41" s="284"/>
     </row>
     <row r="42" spans="3:13">
       <c r="C42" s="111" t="s">
@@ -3586,11 +3589,11 @@
     </row>
     <row r="48" spans="3:13" ht="17.25" thickBot="1"/>
     <row r="49" spans="4:12" ht="17.25" thickBot="1">
-      <c r="D49" s="257" t="s">
+      <c r="D49" s="291" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="258"/>
-      <c r="F49" s="259"/>
+      <c r="E49" s="292"/>
+      <c r="F49" s="293"/>
       <c r="K49">
         <v>28</v>
       </c>
@@ -3623,12 +3626,12 @@
     </row>
     <row r="52" spans="4:12" ht="17.25" thickBot="1"/>
     <row r="53" spans="4:12" ht="17.25" thickBot="1">
-      <c r="D53" s="254" t="s">
+      <c r="D53" s="288" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="255"/>
-      <c r="F53" s="255"/>
-      <c r="G53" s="256"/>
+      <c r="E53" s="289"/>
+      <c r="F53" s="289"/>
+      <c r="G53" s="290"/>
     </row>
     <row r="54" spans="4:12" ht="17.25" thickBot="1">
       <c r="D54" s="106" t="s">
@@ -3667,12 +3670,12 @@
       <c r="G56" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="278" t="s">
+      <c r="I56" s="248" t="s">
         <v>61</v>
       </c>
-      <c r="J56" s="279"/>
-      <c r="K56" s="279"/>
-      <c r="L56" s="280"/>
+      <c r="J56" s="249"/>
+      <c r="K56" s="249"/>
+      <c r="L56" s="250"/>
     </row>
     <row r="57" spans="4:12" ht="17.25" thickBot="1">
       <c r="D57" s="103">
@@ -3692,10 +3695,10 @@
       <c r="J57" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="K57" s="281" t="s">
+      <c r="K57" s="251" t="s">
         <v>65</v>
       </c>
-      <c r="L57" s="282"/>
+      <c r="L57" s="252"/>
     </row>
     <row r="58" spans="4:12">
       <c r="I58" s="129">
@@ -3773,13 +3776,13 @@
       </c>
     </row>
     <row r="63" spans="4:12">
-      <c r="D63" s="283" t="s">
+      <c r="D63" s="253" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="276"/>
-      <c r="F63" s="276"/>
-      <c r="G63" s="276"/>
-      <c r="H63" s="284"/>
+      <c r="E63" s="246"/>
+      <c r="F63" s="246"/>
+      <c r="G63" s="246"/>
+      <c r="H63" s="254"/>
       <c r="I63" s="129">
         <v>12</v>
       </c>
@@ -3888,12 +3891,12 @@
     </row>
     <row r="71" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="72" spans="2:12" ht="17.25" thickBot="1">
-      <c r="C72" s="287" t="s">
+      <c r="C72" s="257" t="s">
         <v>77</v>
       </c>
-      <c r="D72" s="288"/>
-      <c r="E72" s="288"/>
-      <c r="F72" s="289"/>
+      <c r="D72" s="258"/>
+      <c r="E72" s="258"/>
+      <c r="F72" s="259"/>
       <c r="G72" s="151"/>
     </row>
     <row r="73" spans="2:12">
@@ -3909,10 +3912,10 @@
       <c r="F73" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="I73" s="296" t="s">
+      <c r="I73" s="268" t="s">
         <v>103</v>
       </c>
-      <c r="J73" s="297"/>
+      <c r="J73" s="269"/>
       <c r="K73" s="176" t="s">
         <v>92</v>
       </c>
@@ -4024,18 +4027,18 @@
     </row>
     <row r="80" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="81" spans="3:10" ht="17.25" thickBot="1">
-      <c r="I81" s="285" t="s">
+      <c r="I81" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="J81" s="286"/>
+      <c r="J81" s="256"/>
     </row>
     <row r="82" spans="3:10">
-      <c r="C82" s="290" t="s">
+      <c r="C82" s="262" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="291"/>
-      <c r="E82" s="291"/>
-      <c r="F82" s="292"/>
+      <c r="D82" s="263"/>
+      <c r="E82" s="263"/>
+      <c r="F82" s="264"/>
       <c r="I82" s="161" t="s">
         <v>85</v>
       </c>
@@ -4106,12 +4109,12 @@
     </row>
     <row r="87" spans="3:10" ht="17.25" thickBot="1"/>
     <row r="88" spans="3:10">
-      <c r="C88" s="293" t="s">
+      <c r="C88" s="265" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="294"/>
-      <c r="E88" s="294"/>
-      <c r="F88" s="295"/>
+      <c r="D88" s="266"/>
+      <c r="E88" s="266"/>
+      <c r="F88" s="267"/>
     </row>
     <row r="89" spans="3:10">
       <c r="C89" s="165">
@@ -4145,11 +4148,11 @@
     </row>
     <row r="93" spans="3:10" ht="17.25" thickBot="1"/>
     <row r="94" spans="3:10">
-      <c r="C94" s="240" t="s">
+      <c r="C94" s="260" t="s">
         <v>88</v>
       </c>
-      <c r="D94" s="241"/>
-      <c r="E94" s="241"/>
+      <c r="D94" s="261"/>
+      <c r="E94" s="261"/>
       <c r="F94" s="143" t="s">
         <v>92</v>
       </c>
@@ -4350,18 +4353,18 @@
     </row>
     <row r="107" spans="2:10" ht="17.25" thickBot="1"/>
     <row r="108" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B108" s="275" t="s">
+      <c r="B108" s="245" t="s">
         <v>104</v>
       </c>
-      <c r="C108" s="276"/>
-      <c r="D108" s="277"/>
+      <c r="C108" s="246"/>
+      <c r="D108" s="247"/>
       <c r="E108" s="193"/>
-      <c r="F108" s="270" t="s">
+      <c r="F108" s="240" t="s">
         <v>118</v>
       </c>
-      <c r="G108" s="271"/>
-      <c r="H108" s="271"/>
-      <c r="I108" s="272"/>
+      <c r="G108" s="241"/>
+      <c r="H108" s="241"/>
+      <c r="I108" s="242"/>
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="197" t="s">
@@ -4470,10 +4473,10 @@
         <v>8.7245722342233559E-2</v>
       </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="273" t="s">
+      <c r="F113" s="243" t="s">
         <v>119</v>
       </c>
-      <c r="G113" s="274"/>
+      <c r="G113" s="244"/>
       <c r="H113" s="229">
         <f>G109/I111</f>
         <v>475.75</v>
@@ -4591,12 +4594,12 @@
     </row>
     <row r="121" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="122" spans="2:9">
-      <c r="F122" s="237" t="s">
+      <c r="F122" s="273" t="s">
         <v>129</v>
       </c>
-      <c r="G122" s="238"/>
-      <c r="H122" s="238"/>
-      <c r="I122" s="239"/>
+      <c r="G122" s="274"/>
+      <c r="H122" s="274"/>
+      <c r="I122" s="275"/>
     </row>
     <row r="123" spans="2:9">
       <c r="F123" s="232">
@@ -4664,20 +4667,20 @@
     </row>
     <row r="130" spans="3:10" ht="17.25" thickBot="1"/>
     <row r="131" spans="3:10">
-      <c r="F131" s="240" t="s">
+      <c r="F131" s="260" t="s">
         <v>130</v>
       </c>
-      <c r="G131" s="241"/>
+      <c r="G131" s="261"/>
       <c r="H131" s="234">
         <v>800</v>
       </c>
       <c r="I131" s="230"/>
     </row>
     <row r="132" spans="3:10" ht="17.25" thickBot="1">
-      <c r="F132" s="242" t="s">
+      <c r="F132" s="276" t="s">
         <v>131</v>
       </c>
-      <c r="G132" s="243"/>
+      <c r="G132" s="277"/>
       <c r="H132" s="235">
         <v>600</v>
       </c>
@@ -4688,11 +4691,11 @@
     </row>
     <row r="133" spans="3:10" ht="17.25" thickBot="1"/>
     <row r="134" spans="3:10">
-      <c r="C134" s="299" t="s">
+      <c r="C134" s="270" t="s">
         <v>132</v>
       </c>
-      <c r="D134" s="300"/>
-      <c r="E134" s="301"/>
+      <c r="D134" s="271"/>
+      <c r="E134" s="272"/>
     </row>
     <row r="135" spans="3:10">
       <c r="C135" s="125">
@@ -4741,13 +4744,13 @@
         <v>379.06200000000001</v>
       </c>
       <c r="E140" s="150"/>
-      <c r="F140" s="302" t="s">
+      <c r="F140" s="237" t="s">
         <v>137</v>
       </c>
-      <c r="G140" s="303"/>
-      <c r="H140" s="303"/>
-      <c r="I140" s="303"/>
-      <c r="J140" s="304"/>
+      <c r="G140" s="238"/>
+      <c r="H140" s="238"/>
+      <c r="I140" s="238"/>
+      <c r="J140" s="239"/>
     </row>
     <row r="141" spans="3:10">
       <c r="F141" s="125">
@@ -4756,7 +4759,7 @@
       <c r="G141" s="22">
         <v>100</v>
       </c>
-      <c r="H141" s="298">
+      <c r="H141" s="236">
         <v>0.945874934</v>
       </c>
       <c r="I141" s="22"/>
@@ -4826,78 +4829,80 @@
         <v>135</v>
       </c>
     </row>
+    <row r="146" spans="4:10" ht="17.25" thickBot="1"/>
     <row r="147" spans="4:10">
-      <c r="D147" s="236" t="s">
+      <c r="D147" s="304" t="s">
         <v>138</v>
       </c>
-      <c r="E147" s="236"/>
+      <c r="E147" s="305"/>
     </row>
     <row r="148" spans="4:10">
-      <c r="D148">
+      <c r="D148" s="125">
         <v>1140</v>
       </c>
+      <c r="E148" s="48"/>
     </row>
     <row r="149" spans="4:10">
-      <c r="D149">
+      <c r="D149" s="125">
         <v>15</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="48">
         <f>D149/D148</f>
         <v>1.3157894736842105E-2</v>
       </c>
     </row>
     <row r="150" spans="4:10">
-      <c r="D150">
+      <c r="D150" s="125">
         <v>40</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="48">
         <f>D150/D148</f>
         <v>3.5087719298245612E-2</v>
       </c>
     </row>
     <row r="151" spans="4:10">
-      <c r="D151">
+      <c r="D151" s="125">
         <v>162</v>
       </c>
+      <c r="E151" s="48"/>
     </row>
     <row r="152" spans="4:10">
-      <c r="D152">
+      <c r="D152" s="125">
         <v>12</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="48">
         <f>D152/D151</f>
         <v>7.407407407407407E-2</v>
       </c>
     </row>
     <row r="153" spans="4:10">
-      <c r="D153">
+      <c r="D153" s="125">
         <v>30</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="48">
         <f>D153/D151</f>
         <v>0.18518518518518517</v>
       </c>
     </row>
+    <row r="154" spans="4:10">
+      <c r="D154" s="125">
+        <v>500</v>
+      </c>
+      <c r="E154" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="4:10" ht="17.25" thickBot="1">
+      <c r="D155" s="126">
+        <v>26</v>
+      </c>
+      <c r="E155" s="127">
+        <f>D155/E154</f>
+        <v>5.2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F140:J140"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="F132:G132"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="I41:M41"/>
     <mergeCell ref="D22:D25"/>
@@ -4910,6 +4915,24 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="D49:F49"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="F140:J140"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="B108:D108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/비율계산.xlsx
+++ b/비율계산.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="140">
   <si>
     <t>높이비율</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,6 +565,10 @@
   </si>
   <si>
     <t>섹션12 검은 버튼 패딩 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,7 +683,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -848,6 +852,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="59">
     <border>
@@ -1601,7 +1611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2313,6 +2323,177 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2340,185 +2521,29 @@
     <xf numFmtId="0" fontId="6" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2823,8 +2848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C136" workbookViewId="0">
-      <selection activeCell="G149" sqref="G149"/>
+    <sheetView tabSelected="1" topLeftCell="C142" workbookViewId="0">
+      <selection activeCell="L144" sqref="L144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2954,15 +2979,15 @@
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1"/>
     <row r="8" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A8" s="278" t="s">
+      <c r="A8" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="279"/>
-      <c r="C8" s="279"/>
-      <c r="D8" s="279"/>
-      <c r="E8" s="279"/>
-      <c r="F8" s="279"/>
-      <c r="G8" s="280"/>
+      <c r="B8" s="238"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="238"/>
+      <c r="G8" s="239"/>
       <c r="H8" s="114"/>
     </row>
     <row r="9" spans="1:8">
@@ -3098,16 +3123,16 @@
     <row r="18" spans="1:12" ht="17.25" thickBot="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="291" t="s">
+      <c r="C18" s="250" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="292"/>
-      <c r="E18" s="292"/>
-      <c r="F18" s="292"/>
-      <c r="G18" s="292"/>
-      <c r="H18" s="292"/>
-      <c r="I18" s="292"/>
-      <c r="J18" s="293"/>
+      <c r="D18" s="251"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="251"/>
+      <c r="G18" s="251"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="251"/>
+      <c r="J18" s="252"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
@@ -3160,10 +3185,10 @@
     <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="294" t="s">
+      <c r="C22" s="253" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="285" t="s">
+      <c r="D22" s="244" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="59" t="s">
@@ -3180,8 +3205,8 @@
     <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="295"/>
-      <c r="D23" s="286"/>
+      <c r="C23" s="254"/>
+      <c r="D23" s="245"/>
       <c r="E23" s="16" t="s">
         <v>17</v>
       </c>
@@ -3201,8 +3226,8 @@
     <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="295"/>
-      <c r="D24" s="286"/>
+      <c r="C24" s="254"/>
+      <c r="D24" s="245"/>
       <c r="E24" s="16" t="s">
         <v>17</v>
       </c>
@@ -3224,8 +3249,8 @@
     <row r="25" spans="1:12" ht="17.25" thickBot="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="296"/>
-      <c r="D25" s="287"/>
+      <c r="C25" s="255"/>
+      <c r="D25" s="246"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="13"/>
@@ -3263,13 +3288,13 @@
       <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:12" ht="17.25" thickBot="1">
-      <c r="B27" s="303" t="s">
+      <c r="B27" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="294" t="s">
+      <c r="C27" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="300" t="s">
+      <c r="D27" s="259" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="53" t="s">
@@ -3287,9 +3312,9 @@
       <c r="L27" s="22"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="B28" s="303"/>
-      <c r="C28" s="295"/>
-      <c r="D28" s="301"/>
+      <c r="B28" s="262"/>
+      <c r="C28" s="254"/>
+      <c r="D28" s="260"/>
       <c r="E28" s="54" t="s">
         <v>41</v>
       </c>
@@ -3302,9 +3327,9 @@
       <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:12" ht="17.25" thickBot="1">
-      <c r="B29" s="303"/>
-      <c r="C29" s="296"/>
-      <c r="D29" s="302"/>
+      <c r="B29" s="262"/>
+      <c r="C29" s="255"/>
+      <c r="D29" s="261"/>
       <c r="E29" s="55">
         <v>1903</v>
       </c>
@@ -3348,12 +3373,12 @@
     </row>
     <row r="32" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="33" spans="3:13" ht="17.25" thickBot="1">
-      <c r="D33" s="297" t="s">
+      <c r="D33" s="256" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="298"/>
-      <c r="F33" s="298"/>
-      <c r="G33" s="299"/>
+      <c r="E33" s="257"/>
+      <c r="F33" s="257"/>
+      <c r="G33" s="258"/>
     </row>
     <row r="34" spans="3:13">
       <c r="D34" s="41">
@@ -3423,20 +3448,20 @@
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="3:13" ht="17.25" thickBot="1">
-      <c r="C41" s="291" t="s">
+      <c r="C41" s="250" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="292"/>
-      <c r="E41" s="292"/>
-      <c r="F41" s="293"/>
+      <c r="D41" s="251"/>
+      <c r="E41" s="251"/>
+      <c r="F41" s="252"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="281" t="s">
+      <c r="I41" s="240" t="s">
         <v>48</v>
       </c>
-      <c r="J41" s="282"/>
-      <c r="K41" s="282"/>
-      <c r="L41" s="283"/>
-      <c r="M41" s="284"/>
+      <c r="J41" s="241"/>
+      <c r="K41" s="241"/>
+      <c r="L41" s="242"/>
+      <c r="M41" s="243"/>
     </row>
     <row r="42" spans="3:13">
       <c r="C42" s="111" t="s">
@@ -3589,11 +3614,11 @@
     </row>
     <row r="48" spans="3:13" ht="17.25" thickBot="1"/>
     <row r="49" spans="4:12" ht="17.25" thickBot="1">
-      <c r="D49" s="291" t="s">
+      <c r="D49" s="250" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="292"/>
-      <c r="F49" s="293"/>
+      <c r="E49" s="251"/>
+      <c r="F49" s="252"/>
       <c r="K49">
         <v>28</v>
       </c>
@@ -3626,12 +3651,12 @@
     </row>
     <row r="52" spans="4:12" ht="17.25" thickBot="1"/>
     <row r="53" spans="4:12" ht="17.25" thickBot="1">
-      <c r="D53" s="288" t="s">
+      <c r="D53" s="247" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="289"/>
-      <c r="F53" s="289"/>
-      <c r="G53" s="290"/>
+      <c r="E53" s="248"/>
+      <c r="F53" s="248"/>
+      <c r="G53" s="249"/>
     </row>
     <row r="54" spans="4:12" ht="17.25" thickBot="1">
       <c r="D54" s="106" t="s">
@@ -3670,12 +3695,12 @@
       <c r="G56" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="248" t="s">
+      <c r="I56" s="281" t="s">
         <v>61</v>
       </c>
-      <c r="J56" s="249"/>
-      <c r="K56" s="249"/>
-      <c r="L56" s="250"/>
+      <c r="J56" s="282"/>
+      <c r="K56" s="282"/>
+      <c r="L56" s="283"/>
     </row>
     <row r="57" spans="4:12" ht="17.25" thickBot="1">
       <c r="D57" s="103">
@@ -3695,10 +3720,10 @@
       <c r="J57" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="K57" s="251" t="s">
+      <c r="K57" s="284" t="s">
         <v>65</v>
       </c>
-      <c r="L57" s="252"/>
+      <c r="L57" s="285"/>
     </row>
     <row r="58" spans="4:12">
       <c r="I58" s="129">
@@ -3776,13 +3801,13 @@
       </c>
     </row>
     <row r="63" spans="4:12">
-      <c r="D63" s="253" t="s">
+      <c r="D63" s="286" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="246"/>
-      <c r="F63" s="246"/>
-      <c r="G63" s="246"/>
-      <c r="H63" s="254"/>
+      <c r="E63" s="287"/>
+      <c r="F63" s="287"/>
+      <c r="G63" s="287"/>
+      <c r="H63" s="288"/>
       <c r="I63" s="129">
         <v>12</v>
       </c>
@@ -3891,12 +3916,12 @@
     </row>
     <row r="71" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="72" spans="2:12" ht="17.25" thickBot="1">
-      <c r="C72" s="257" t="s">
+      <c r="C72" s="291" t="s">
         <v>77</v>
       </c>
-      <c r="D72" s="258"/>
-      <c r="E72" s="258"/>
-      <c r="F72" s="259"/>
+      <c r="D72" s="292"/>
+      <c r="E72" s="292"/>
+      <c r="F72" s="293"/>
       <c r="G72" s="151"/>
     </row>
     <row r="73" spans="2:12">
@@ -3912,10 +3937,10 @@
       <c r="F73" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="I73" s="268" t="s">
+      <c r="I73" s="271" t="s">
         <v>103</v>
       </c>
-      <c r="J73" s="269"/>
+      <c r="J73" s="272"/>
       <c r="K73" s="176" t="s">
         <v>92</v>
       </c>
@@ -4027,18 +4052,18 @@
     </row>
     <row r="80" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="81" spans="3:10" ht="17.25" thickBot="1">
-      <c r="I81" s="255" t="s">
+      <c r="I81" s="289" t="s">
         <v>87</v>
       </c>
-      <c r="J81" s="256"/>
+      <c r="J81" s="290"/>
     </row>
     <row r="82" spans="3:10">
-      <c r="C82" s="262" t="s">
+      <c r="C82" s="265" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="263"/>
-      <c r="E82" s="263"/>
-      <c r="F82" s="264"/>
+      <c r="D82" s="266"/>
+      <c r="E82" s="266"/>
+      <c r="F82" s="267"/>
       <c r="I82" s="161" t="s">
         <v>85</v>
       </c>
@@ -4109,12 +4134,12 @@
     </row>
     <row r="87" spans="3:10" ht="17.25" thickBot="1"/>
     <row r="88" spans="3:10">
-      <c r="C88" s="265" t="s">
+      <c r="C88" s="268" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="266"/>
-      <c r="E88" s="266"/>
-      <c r="F88" s="267"/>
+      <c r="D88" s="269"/>
+      <c r="E88" s="269"/>
+      <c r="F88" s="270"/>
     </row>
     <row r="89" spans="3:10">
       <c r="C89" s="165">
@@ -4148,11 +4173,11 @@
     </row>
     <row r="93" spans="3:10" ht="17.25" thickBot="1"/>
     <row r="94" spans="3:10">
-      <c r="C94" s="260" t="s">
+      <c r="C94" s="263" t="s">
         <v>88</v>
       </c>
-      <c r="D94" s="261"/>
-      <c r="E94" s="261"/>
+      <c r="D94" s="264"/>
+      <c r="E94" s="264"/>
       <c r="F94" s="143" t="s">
         <v>92</v>
       </c>
@@ -4353,18 +4378,18 @@
     </row>
     <row r="107" spans="2:10" ht="17.25" thickBot="1"/>
     <row r="108" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B108" s="245" t="s">
+      <c r="B108" s="302" t="s">
         <v>104</v>
       </c>
-      <c r="C108" s="246"/>
-      <c r="D108" s="247"/>
+      <c r="C108" s="287"/>
+      <c r="D108" s="303"/>
       <c r="E108" s="193"/>
-      <c r="F108" s="240" t="s">
+      <c r="F108" s="297" t="s">
         <v>118</v>
       </c>
-      <c r="G108" s="241"/>
-      <c r="H108" s="241"/>
-      <c r="I108" s="242"/>
+      <c r="G108" s="298"/>
+      <c r="H108" s="298"/>
+      <c r="I108" s="299"/>
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="197" t="s">
@@ -4473,10 +4498,10 @@
         <v>8.7245722342233559E-2</v>
       </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="243" t="s">
+      <c r="F113" s="300" t="s">
         <v>119</v>
       </c>
-      <c r="G113" s="244"/>
+      <c r="G113" s="301"/>
       <c r="H113" s="229">
         <f>G109/I111</f>
         <v>475.75</v>
@@ -4594,12 +4619,12 @@
     </row>
     <row r="121" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="122" spans="2:9">
-      <c r="F122" s="273" t="s">
+      <c r="F122" s="276" t="s">
         <v>129</v>
       </c>
-      <c r="G122" s="274"/>
-      <c r="H122" s="274"/>
-      <c r="I122" s="275"/>
+      <c r="G122" s="277"/>
+      <c r="H122" s="277"/>
+      <c r="I122" s="278"/>
     </row>
     <row r="123" spans="2:9">
       <c r="F123" s="232">
@@ -4667,20 +4692,20 @@
     </row>
     <row r="130" spans="3:10" ht="17.25" thickBot="1"/>
     <row r="131" spans="3:10">
-      <c r="F131" s="260" t="s">
+      <c r="F131" s="263" t="s">
         <v>130</v>
       </c>
-      <c r="G131" s="261"/>
+      <c r="G131" s="264"/>
       <c r="H131" s="234">
         <v>800</v>
       </c>
       <c r="I131" s="230"/>
     </row>
     <row r="132" spans="3:10" ht="17.25" thickBot="1">
-      <c r="F132" s="276" t="s">
+      <c r="F132" s="279" t="s">
         <v>131</v>
       </c>
-      <c r="G132" s="277"/>
+      <c r="G132" s="280"/>
       <c r="H132" s="235">
         <v>600</v>
       </c>
@@ -4691,11 +4716,11 @@
     </row>
     <row r="133" spans="3:10" ht="17.25" thickBot="1"/>
     <row r="134" spans="3:10">
-      <c r="C134" s="270" t="s">
+      <c r="C134" s="273" t="s">
         <v>132</v>
       </c>
-      <c r="D134" s="271"/>
-      <c r="E134" s="272"/>
+      <c r="D134" s="274"/>
+      <c r="E134" s="275"/>
     </row>
     <row r="135" spans="3:10">
       <c r="C135" s="125">
@@ -4744,13 +4769,13 @@
         <v>379.06200000000001</v>
       </c>
       <c r="E140" s="150"/>
-      <c r="F140" s="237" t="s">
+      <c r="F140" s="294" t="s">
         <v>137</v>
       </c>
-      <c r="G140" s="238"/>
-      <c r="H140" s="238"/>
-      <c r="I140" s="238"/>
-      <c r="J140" s="239"/>
+      <c r="G140" s="295"/>
+      <c r="H140" s="295"/>
+      <c r="I140" s="295"/>
+      <c r="J140" s="296"/>
     </row>
     <row r="141" spans="3:10">
       <c r="F141" s="125">
@@ -4810,7 +4835,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="145" spans="4:10" ht="17.25" thickBot="1">
+    <row r="145" spans="4:11" ht="17.25" thickBot="1">
       <c r="F145" s="126">
         <v>760</v>
       </c>
@@ -4829,20 +4854,20 @@
         <v>135</v>
       </c>
     </row>
-    <row r="146" spans="4:10" ht="17.25" thickBot="1"/>
-    <row r="147" spans="4:10">
+    <row r="146" spans="4:11" ht="17.25" thickBot="1"/>
+    <row r="147" spans="4:11">
       <c r="D147" s="304" t="s">
         <v>138</v>
       </c>
       <c r="E147" s="305"/>
     </row>
-    <row r="148" spans="4:10">
+    <row r="148" spans="4:11">
       <c r="D148" s="125">
         <v>1140</v>
       </c>
       <c r="E148" s="48"/>
     </row>
-    <row r="149" spans="4:10">
+    <row r="149" spans="4:11" ht="17.25" thickBot="1">
       <c r="D149" s="125">
         <v>15</v>
       </c>
@@ -4850,8 +4875,14 @@
         <f>D149/D148</f>
         <v>1.3157894736842105E-2</v>
       </c>
-    </row>
-    <row r="150" spans="4:10">
+      <c r="H149" s="310">
+        <v>10</v>
+      </c>
+      <c r="I149" s="310" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="150" spans="4:11">
       <c r="D150" s="125">
         <v>40</v>
       </c>
@@ -4859,14 +4890,46 @@
         <f>D150/D148</f>
         <v>3.5087719298245612E-2</v>
       </c>
-    </row>
-    <row r="151" spans="4:10">
+      <c r="G150" s="306"/>
+      <c r="H150" s="307">
+        <v>7800</v>
+      </c>
+      <c r="I150" s="307">
+        <v>9870</v>
+      </c>
+      <c r="J150" s="307">
+        <v>3500</v>
+      </c>
+      <c r="K150" s="308">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="151" spans="4:11">
       <c r="D151" s="125">
         <v>162</v>
       </c>
       <c r="E151" s="48"/>
-    </row>
-    <row r="152" spans="4:10">
+      <c r="G151" s="309">
+        <v>100000</v>
+      </c>
+      <c r="H151" s="22">
+        <f>H149/H150</f>
+        <v>1.2820512820512821E-3</v>
+      </c>
+      <c r="I151" s="22">
+        <f>H149/I150</f>
+        <v>1.0131712259371835E-3</v>
+      </c>
+      <c r="J151" s="22">
+        <f>H149/J150</f>
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="K151" s="48">
+        <f>H149/K150</f>
+        <v>6.024096385542169E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="4:11" ht="17.25" thickBot="1">
       <c r="D152" s="125">
         <v>12</v>
       </c>
@@ -4874,8 +4937,25 @@
         <f>D152/D151</f>
         <v>7.407407407407407E-2</v>
       </c>
-    </row>
-    <row r="153" spans="4:10">
+      <c r="G152" s="126"/>
+      <c r="H152" s="43">
+        <f>H151*G151</f>
+        <v>128.2051282051282</v>
+      </c>
+      <c r="I152" s="43">
+        <f>I151*G151</f>
+        <v>101.31712259371835</v>
+      </c>
+      <c r="J152" s="43">
+        <f>J151*G151</f>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="K152" s="127">
+        <f>K151*G151</f>
+        <v>602.40963855421694</v>
+      </c>
+    </row>
+    <row r="153" spans="4:11">
       <c r="D153" s="125">
         <v>30</v>
       </c>
@@ -4884,7 +4964,7 @@
         <v>0.18518518518518517</v>
       </c>
     </row>
-    <row r="154" spans="4:10">
+    <row r="154" spans="4:11">
       <c r="D154" s="125">
         <v>500</v>
       </c>
@@ -4892,7 +4972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="4:10" ht="17.25" thickBot="1">
+    <row r="155" spans="4:11" ht="17.25" thickBot="1">
       <c r="D155" s="126">
         <v>26</v>
       </c>
@@ -4903,6 +4983,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F140:J140"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="F132:G132"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="I41:M41"/>
     <mergeCell ref="D22:D25"/>
@@ -4915,24 +5013,6 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="D49:F49"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="F140:J140"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="B108:D108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/비율계산.xlsx
+++ b/비율계산.xlsx
@@ -2323,6 +2323,150 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2400,150 +2544,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2846,10 +2846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C142" workbookViewId="0">
-      <selection activeCell="L144" sqref="L144"/>
+      <selection activeCell="K158" sqref="K158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2979,15 +2979,15 @@
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1"/>
     <row r="8" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A8" s="237" t="s">
+      <c r="A8" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="238"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238"/>
-      <c r="G8" s="239"/>
+      <c r="B8" s="286"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="286"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
+      <c r="G8" s="287"/>
       <c r="H8" s="114"/>
     </row>
     <row r="9" spans="1:8">
@@ -3123,16 +3123,16 @@
     <row r="18" spans="1:12" ht="17.25" thickBot="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="250" t="s">
+      <c r="C18" s="298" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="251"/>
-      <c r="E18" s="251"/>
-      <c r="F18" s="251"/>
-      <c r="G18" s="251"/>
-      <c r="H18" s="251"/>
-      <c r="I18" s="251"/>
-      <c r="J18" s="252"/>
+      <c r="D18" s="299"/>
+      <c r="E18" s="299"/>
+      <c r="F18" s="299"/>
+      <c r="G18" s="299"/>
+      <c r="H18" s="299"/>
+      <c r="I18" s="299"/>
+      <c r="J18" s="300"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
@@ -3185,10 +3185,10 @@
     <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="253" t="s">
+      <c r="C22" s="301" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="244" t="s">
+      <c r="D22" s="292" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="59" t="s">
@@ -3205,8 +3205,8 @@
     <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="254"/>
-      <c r="D23" s="245"/>
+      <c r="C23" s="302"/>
+      <c r="D23" s="293"/>
       <c r="E23" s="16" t="s">
         <v>17</v>
       </c>
@@ -3226,8 +3226,8 @@
     <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="254"/>
-      <c r="D24" s="245"/>
+      <c r="C24" s="302"/>
+      <c r="D24" s="293"/>
       <c r="E24" s="16" t="s">
         <v>17</v>
       </c>
@@ -3249,8 +3249,8 @@
     <row r="25" spans="1:12" ht="17.25" thickBot="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="255"/>
-      <c r="D25" s="246"/>
+      <c r="C25" s="303"/>
+      <c r="D25" s="294"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="13"/>
@@ -3288,13 +3288,13 @@
       <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:12" ht="17.25" thickBot="1">
-      <c r="B27" s="262" t="s">
+      <c r="B27" s="310" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="253" t="s">
+      <c r="C27" s="301" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="259" t="s">
+      <c r="D27" s="307" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="53" t="s">
@@ -3312,9 +3312,9 @@
       <c r="L27" s="22"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="B28" s="262"/>
-      <c r="C28" s="254"/>
-      <c r="D28" s="260"/>
+      <c r="B28" s="310"/>
+      <c r="C28" s="302"/>
+      <c r="D28" s="308"/>
       <c r="E28" s="54" t="s">
         <v>41</v>
       </c>
@@ -3327,9 +3327,9 @@
       <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:12" ht="17.25" thickBot="1">
-      <c r="B29" s="262"/>
-      <c r="C29" s="255"/>
-      <c r="D29" s="261"/>
+      <c r="B29" s="310"/>
+      <c r="C29" s="303"/>
+      <c r="D29" s="309"/>
       <c r="E29" s="55">
         <v>1903</v>
       </c>
@@ -3373,12 +3373,12 @@
     </row>
     <row r="32" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="33" spans="3:13" ht="17.25" thickBot="1">
-      <c r="D33" s="256" t="s">
+      <c r="D33" s="304" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="257"/>
-      <c r="F33" s="257"/>
-      <c r="G33" s="258"/>
+      <c r="E33" s="305"/>
+      <c r="F33" s="305"/>
+      <c r="G33" s="306"/>
     </row>
     <row r="34" spans="3:13">
       <c r="D34" s="41">
@@ -3448,20 +3448,20 @@
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="3:13" ht="17.25" thickBot="1">
-      <c r="C41" s="250" t="s">
+      <c r="C41" s="298" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="251"/>
-      <c r="E41" s="251"/>
-      <c r="F41" s="252"/>
+      <c r="D41" s="299"/>
+      <c r="E41" s="299"/>
+      <c r="F41" s="300"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="240" t="s">
+      <c r="I41" s="288" t="s">
         <v>48</v>
       </c>
-      <c r="J41" s="241"/>
-      <c r="K41" s="241"/>
-      <c r="L41" s="242"/>
-      <c r="M41" s="243"/>
+      <c r="J41" s="289"/>
+      <c r="K41" s="289"/>
+      <c r="L41" s="290"/>
+      <c r="M41" s="291"/>
     </row>
     <row r="42" spans="3:13">
       <c r="C42" s="111" t="s">
@@ -3614,11 +3614,11 @@
     </row>
     <row r="48" spans="3:13" ht="17.25" thickBot="1"/>
     <row r="49" spans="4:12" ht="17.25" thickBot="1">
-      <c r="D49" s="250" t="s">
+      <c r="D49" s="298" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="251"/>
-      <c r="F49" s="252"/>
+      <c r="E49" s="299"/>
+      <c r="F49" s="300"/>
       <c r="K49">
         <v>28</v>
       </c>
@@ -3651,12 +3651,12 @@
     </row>
     <row r="52" spans="4:12" ht="17.25" thickBot="1"/>
     <row r="53" spans="4:12" ht="17.25" thickBot="1">
-      <c r="D53" s="247" t="s">
+      <c r="D53" s="295" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="248"/>
-      <c r="F53" s="248"/>
-      <c r="G53" s="249"/>
+      <c r="E53" s="296"/>
+      <c r="F53" s="296"/>
+      <c r="G53" s="297"/>
     </row>
     <row r="54" spans="4:12" ht="17.25" thickBot="1">
       <c r="D54" s="106" t="s">
@@ -3695,12 +3695,12 @@
       <c r="G56" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="281" t="s">
+      <c r="I56" s="255" t="s">
         <v>61</v>
       </c>
-      <c r="J56" s="282"/>
-      <c r="K56" s="282"/>
-      <c r="L56" s="283"/>
+      <c r="J56" s="256"/>
+      <c r="K56" s="256"/>
+      <c r="L56" s="257"/>
     </row>
     <row r="57" spans="4:12" ht="17.25" thickBot="1">
       <c r="D57" s="103">
@@ -3720,10 +3720,10 @@
       <c r="J57" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="K57" s="284" t="s">
+      <c r="K57" s="258" t="s">
         <v>65</v>
       </c>
-      <c r="L57" s="285"/>
+      <c r="L57" s="259"/>
     </row>
     <row r="58" spans="4:12">
       <c r="I58" s="129">
@@ -3801,13 +3801,13 @@
       </c>
     </row>
     <row r="63" spans="4:12">
-      <c r="D63" s="286" t="s">
+      <c r="D63" s="260" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="287"/>
-      <c r="F63" s="287"/>
-      <c r="G63" s="287"/>
-      <c r="H63" s="288"/>
+      <c r="E63" s="253"/>
+      <c r="F63" s="253"/>
+      <c r="G63" s="253"/>
+      <c r="H63" s="261"/>
       <c r="I63" s="129">
         <v>12</v>
       </c>
@@ -3916,12 +3916,12 @@
     </row>
     <row r="71" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="72" spans="2:12" ht="17.25" thickBot="1">
-      <c r="C72" s="291" t="s">
+      <c r="C72" s="264" t="s">
         <v>77</v>
       </c>
-      <c r="D72" s="292"/>
-      <c r="E72" s="292"/>
-      <c r="F72" s="293"/>
+      <c r="D72" s="265"/>
+      <c r="E72" s="265"/>
+      <c r="F72" s="266"/>
       <c r="G72" s="151"/>
     </row>
     <row r="73" spans="2:12">
@@ -3937,10 +3937,10 @@
       <c r="F73" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="I73" s="271" t="s">
+      <c r="I73" s="275" t="s">
         <v>103</v>
       </c>
-      <c r="J73" s="272"/>
+      <c r="J73" s="276"/>
       <c r="K73" s="176" t="s">
         <v>92</v>
       </c>
@@ -4052,18 +4052,18 @@
     </row>
     <row r="80" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="81" spans="3:10" ht="17.25" thickBot="1">
-      <c r="I81" s="289" t="s">
+      <c r="I81" s="262" t="s">
         <v>87</v>
       </c>
-      <c r="J81" s="290"/>
+      <c r="J81" s="263"/>
     </row>
     <row r="82" spans="3:10">
-      <c r="C82" s="265" t="s">
+      <c r="C82" s="269" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="266"/>
-      <c r="E82" s="266"/>
-      <c r="F82" s="267"/>
+      <c r="D82" s="270"/>
+      <c r="E82" s="270"/>
+      <c r="F82" s="271"/>
       <c r="I82" s="161" t="s">
         <v>85</v>
       </c>
@@ -4134,12 +4134,12 @@
     </row>
     <row r="87" spans="3:10" ht="17.25" thickBot="1"/>
     <row r="88" spans="3:10">
-      <c r="C88" s="268" t="s">
+      <c r="C88" s="272" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="269"/>
-      <c r="E88" s="269"/>
-      <c r="F88" s="270"/>
+      <c r="D88" s="273"/>
+      <c r="E88" s="273"/>
+      <c r="F88" s="274"/>
     </row>
     <row r="89" spans="3:10">
       <c r="C89" s="165">
@@ -4173,11 +4173,11 @@
     </row>
     <row r="93" spans="3:10" ht="17.25" thickBot="1"/>
     <row r="94" spans="3:10">
-      <c r="C94" s="263" t="s">
+      <c r="C94" s="267" t="s">
         <v>88</v>
       </c>
-      <c r="D94" s="264"/>
-      <c r="E94" s="264"/>
+      <c r="D94" s="268"/>
+      <c r="E94" s="268"/>
       <c r="F94" s="143" t="s">
         <v>92</v>
       </c>
@@ -4378,18 +4378,18 @@
     </row>
     <row r="107" spans="2:10" ht="17.25" thickBot="1"/>
     <row r="108" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B108" s="302" t="s">
+      <c r="B108" s="252" t="s">
         <v>104</v>
       </c>
-      <c r="C108" s="287"/>
-      <c r="D108" s="303"/>
+      <c r="C108" s="253"/>
+      <c r="D108" s="254"/>
       <c r="E108" s="193"/>
-      <c r="F108" s="297" t="s">
+      <c r="F108" s="247" t="s">
         <v>118</v>
       </c>
-      <c r="G108" s="298"/>
-      <c r="H108" s="298"/>
-      <c r="I108" s="299"/>
+      <c r="G108" s="248"/>
+      <c r="H108" s="248"/>
+      <c r="I108" s="249"/>
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="197" t="s">
@@ -4498,10 +4498,10 @@
         <v>8.7245722342233559E-2</v>
       </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="300" t="s">
+      <c r="F113" s="250" t="s">
         <v>119</v>
       </c>
-      <c r="G113" s="301"/>
+      <c r="G113" s="251"/>
       <c r="H113" s="229">
         <f>G109/I111</f>
         <v>475.75</v>
@@ -4619,12 +4619,12 @@
     </row>
     <row r="121" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="122" spans="2:9">
-      <c r="F122" s="276" t="s">
+      <c r="F122" s="280" t="s">
         <v>129</v>
       </c>
-      <c r="G122" s="277"/>
-      <c r="H122" s="277"/>
-      <c r="I122" s="278"/>
+      <c r="G122" s="281"/>
+      <c r="H122" s="281"/>
+      <c r="I122" s="282"/>
     </row>
     <row r="123" spans="2:9">
       <c r="F123" s="232">
@@ -4692,20 +4692,20 @@
     </row>
     <row r="130" spans="3:10" ht="17.25" thickBot="1"/>
     <row r="131" spans="3:10">
-      <c r="F131" s="263" t="s">
+      <c r="F131" s="267" t="s">
         <v>130</v>
       </c>
-      <c r="G131" s="264"/>
+      <c r="G131" s="268"/>
       <c r="H131" s="234">
         <v>800</v>
       </c>
       <c r="I131" s="230"/>
     </row>
     <row r="132" spans="3:10" ht="17.25" thickBot="1">
-      <c r="F132" s="279" t="s">
+      <c r="F132" s="283" t="s">
         <v>131</v>
       </c>
-      <c r="G132" s="280"/>
+      <c r="G132" s="284"/>
       <c r="H132" s="235">
         <v>600</v>
       </c>
@@ -4716,11 +4716,11 @@
     </row>
     <row r="133" spans="3:10" ht="17.25" thickBot="1"/>
     <row r="134" spans="3:10">
-      <c r="C134" s="273" t="s">
+      <c r="C134" s="277" t="s">
         <v>132</v>
       </c>
-      <c r="D134" s="274"/>
-      <c r="E134" s="275"/>
+      <c r="D134" s="278"/>
+      <c r="E134" s="279"/>
     </row>
     <row r="135" spans="3:10">
       <c r="C135" s="125">
@@ -4769,13 +4769,13 @@
         <v>379.06200000000001</v>
       </c>
       <c r="E140" s="150"/>
-      <c r="F140" s="294" t="s">
+      <c r="F140" s="242" t="s">
         <v>137</v>
       </c>
-      <c r="G140" s="295"/>
-      <c r="H140" s="295"/>
-      <c r="I140" s="295"/>
-      <c r="J140" s="296"/>
+      <c r="G140" s="243"/>
+      <c r="H140" s="243"/>
+      <c r="I140" s="243"/>
+      <c r="J140" s="244"/>
     </row>
     <row r="141" spans="3:10">
       <c r="F141" s="125">
@@ -4856,10 +4856,10 @@
     </row>
     <row r="146" spans="4:11" ht="17.25" thickBot="1"/>
     <row r="147" spans="4:11">
-      <c r="D147" s="304" t="s">
+      <c r="D147" s="245" t="s">
         <v>138</v>
       </c>
-      <c r="E147" s="305"/>
+      <c r="E147" s="246"/>
     </row>
     <row r="148" spans="4:11">
       <c r="D148" s="125">
@@ -4875,10 +4875,10 @@
         <f>D149/D148</f>
         <v>1.3157894736842105E-2</v>
       </c>
-      <c r="H149" s="310">
+      <c r="H149" s="241">
         <v>10</v>
       </c>
-      <c r="I149" s="310" t="s">
+      <c r="I149" s="241" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4890,17 +4890,17 @@
         <f>D150/D148</f>
         <v>3.5087719298245612E-2</v>
       </c>
-      <c r="G150" s="306"/>
-      <c r="H150" s="307">
+      <c r="G150" s="237"/>
+      <c r="H150" s="238">
         <v>7800</v>
       </c>
-      <c r="I150" s="307">
+      <c r="I150" s="238">
         <v>9870</v>
       </c>
-      <c r="J150" s="307">
+      <c r="J150" s="238">
         <v>3500</v>
       </c>
-      <c r="K150" s="308">
+      <c r="K150" s="239">
         <v>1660</v>
       </c>
     </row>
@@ -4909,7 +4909,7 @@
         <v>162</v>
       </c>
       <c r="E151" s="48"/>
-      <c r="G151" s="309">
+      <c r="G151" s="240">
         <v>100000</v>
       </c>
       <c r="H151" s="22">
@@ -4981,26 +4981,29 @@
         <v>5.2</v>
       </c>
     </row>
+    <row r="158" spans="4:11">
+      <c r="H158">
+        <v>652.5</v>
+      </c>
+      <c r="I158">
+        <f>H158+H159</f>
+        <v>682.5</v>
+      </c>
+      <c r="J158">
+        <v>1170</v>
+      </c>
+      <c r="K158">
+        <f>J158-I158</f>
+        <v>487.5</v>
+      </c>
+    </row>
+    <row r="159" spans="4:11">
+      <c r="H159">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F140:J140"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="F132:G132"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="I41:M41"/>
     <mergeCell ref="D22:D25"/>
@@ -5013,6 +5016,24 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="D49:F49"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="F140:J140"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="B108:D108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
